--- a/public/templates/Form16_FIXED.xlsx
+++ b/public/templates/Form16_FIXED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCF9B58-760F-4C8A-8A7F-09E042EB1A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD21F1B2-976E-4BF2-90E1-6DDAF633441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,15 +61,9 @@
     <t>I Smart Facitech Private Ltd</t>
   </si>
   <si>
-    <t>{{EMP_NAME}}</t>
-  </si>
-  <si>
     <t>317, 3rd Floor,A/2 , Neelgiri Bldg,</t>
   </si>
   <si>
-    <t>{{EMP_DESIGNATION}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wadala Truck Terminal Near Wadala RTO, </t>
   </si>
   <si>
@@ -515,6 +509,12 @@
   </si>
   <si>
     <t>G99= PT Annual</t>
+  </si>
+  <si>
+    <t>EMP_NAME</t>
+  </si>
+  <si>
+    <t>EMP_DESIGNATION</t>
   </si>
 </sst>
 </file>
@@ -1438,249 +1438,81 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="11" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="21" fillId="15" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="15" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="15" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="15" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="15" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="15" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="15" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="15" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="15" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="17" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="15" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="15" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="4" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1691,19 +1523,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="15" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="166" fontId="16" fillId="15" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="4" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="15" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="36">
     <cellStyle name="60% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
@@ -1754,6 +1754,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>17882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>38161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C45312B2-E563-40CF-B19D-219817FEE6C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5419724" y="27630857"/>
+          <a:ext cx="1076325" cy="591779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2075,27 +2154,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ER168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="N137" sqref="N137"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:148" ht="18" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
       <c r="O1" s="12"/>
@@ -2234,20 +2313,20 @@
       <c r="ER1" s="12"/>
     </row>
     <row r="2" spans="1:148">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="114"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="112"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="12"/>
@@ -2386,20 +2465,20 @@
       <c r="ER2" s="17"/>
     </row>
     <row r="3" spans="1:148">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="114"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="112"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="12"/>
@@ -2538,20 +2617,20 @@
       <c r="ER3" s="12"/>
     </row>
     <row r="4" spans="1:148">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="114"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="112"/>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="12"/>
@@ -2690,20 +2769,20 @@
       <c r="ER4" s="12"/>
     </row>
     <row r="5" spans="1:148">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="114"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="112"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="12"/>
@@ -2992,22 +3071,22 @@
       <c r="ER6" s="12"/>
     </row>
     <row r="7" spans="1:148">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="139" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="12"/>
@@ -3146,22 +3225,20 @@
       <c r="ER7" s="12"/>
     </row>
     <row r="8" spans="1:148">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="114"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="112"/>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
       <c r="O8" s="12"/>
@@ -3300,22 +3377,20 @@
       <c r="ER8" s="12"/>
     </row>
     <row r="9" spans="1:148">
-      <c r="A9" s="138" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="114"/>
+      <c r="A9" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="112"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="12"/>
@@ -3454,20 +3529,20 @@
       <c r="ER9" s="12"/>
     </row>
     <row r="10" spans="1:148">
-      <c r="A10" s="138" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="114"/>
+      <c r="A10" s="149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="112"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
       <c r="O10" s="12"/>
@@ -3606,20 +3681,20 @@
       <c r="ER10" s="12"/>
     </row>
     <row r="11" spans="1:148">
-      <c r="A11" s="138" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="114"/>
+      <c r="A11" s="149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="112"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="12"/>
@@ -3758,24 +3833,24 @@
       <c r="ER11" s="12"/>
     </row>
     <row r="12" spans="1:148">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="109"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="115"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="12"/>
@@ -3914,24 +3989,24 @@
       <c r="ER12" s="12"/>
     </row>
     <row r="13" spans="1:148">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="173" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="153" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="170" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="109"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="12"/>
@@ -4071,23 +4146,23 @@
     </row>
     <row r="14" spans="1:148">
       <c r="A14" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="107" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="108"/>
-      <c r="L14" s="109"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="169" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="114"/>
+      <c r="L14" s="115"/>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="12"/>
@@ -4227,25 +4302,25 @@
     </row>
     <row r="15" spans="1:148">
       <c r="A15" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="107" t="s">
+      <c r="D15" s="180"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="115"/>
+      <c r="I15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="174" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="175"/>
-      <c r="L15" s="176"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="132"/>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
       <c r="O15" s="12"/>
@@ -4385,23 +4460,23 @@
     </row>
     <row r="16" spans="1:148">
       <c r="A16" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="160">
+      <c r="D16" s="165"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="164">
         <v>45748</v>
       </c>
-      <c r="H16" s="109"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="99">
         <v>45930</v>
       </c>
-      <c r="J16" s="177"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="179"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="135"/>
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
       <c r="O16" s="12"/>
@@ -4541,7 +4616,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -4558,198 +4633,198 @@
       <c r="N17" s="25"/>
     </row>
     <row r="18" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A18" s="172" t="s">
+      <c r="A18" s="179" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="115"/>
+      <c r="C18" s="182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="132" t="s">
+      <c r="G18" s="115"/>
+      <c r="H18" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="150" t="s">
+      <c r="I18" s="114"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="109"/>
-      <c r="H18" s="164" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="164" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="109"/>
+      <c r="L18" s="115"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="146">
+      <c r="A19" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="115"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="145">
         <v>0</v>
       </c>
-      <c r="L19" s="109"/>
+      <c r="L19" s="115"/>
       <c r="M19" s="45"/>
       <c r="N19" s="45"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="146">
+      <c r="A20" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="115"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="145">
         <v>0</v>
       </c>
-      <c r="L20" s="109"/>
+      <c r="L20" s="115"/>
       <c r="M20" s="45"/>
       <c r="N20" s="45"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="146">
+      <c r="A21" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="115"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="145">
         <v>0</v>
       </c>
-      <c r="L21" s="109"/>
+      <c r="L21" s="115"/>
       <c r="M21" s="45"/>
       <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="146">
+      <c r="A22" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="115"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="145">
         <v>0</v>
       </c>
-      <c r="L22" s="109"/>
+      <c r="L22" s="115"/>
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="130">
+      <c r="A23" s="153" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="115"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="166">
         <v>0</v>
       </c>
-      <c r="G23" s="109"/>
-      <c r="H23" s="180">
+      <c r="G23" s="115"/>
+      <c r="H23" s="137">
         <v>0</v>
       </c>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="130">
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="166">
         <v>0</v>
       </c>
-      <c r="L23" s="109"/>
+      <c r="L23" s="115"/>
       <c r="M23" s="46"/>
       <c r="N23" s="46"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="154" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="109"/>
+      <c r="A24" s="163" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="115"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
       <c r="M25" s="45"/>
       <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="50"/>
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="138" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="109"/>
+      <c r="G26" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="159" t="s">
+      <c r="H26" s="110"/>
+      <c r="I26" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="118" t="s">
+      <c r="J26" s="110"/>
+      <c r="K26" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="117"/>
-      <c r="K26" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="117"/>
+      <c r="L26" s="110"/>
       <c r="M26" s="51"/>
       <c r="N26" s="51"/>
     </row>
@@ -4757,41 +4832,41 @@
       <c r="A27" s="50"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="120"/>
+      <c r="G27" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="112"/>
+      <c r="I27" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="112"/>
+      <c r="K27" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="124"/>
-      <c r="G27" s="141" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="114"/>
-      <c r="I27" s="141" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="114"/>
-      <c r="K27" s="156" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="114"/>
+      <c r="L27" s="112"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="52"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="53"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="163" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="152"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="126"/>
       <c r="K28" s="27"/>
       <c r="L28" s="29"/>
       <c r="M28" s="25"/>
@@ -4801,15 +4876,15 @@
       <c r="A29" s="36">
         <v>1</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="109"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="115"/>
       <c r="K29" s="3"/>
       <c r="L29" s="2"/>
       <c r="M29" s="25"/>
@@ -4819,15 +4894,15 @@
       <c r="A30" s="54">
         <v>2</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="109"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="115"/>
       <c r="K30" s="3"/>
       <c r="L30" s="2"/>
       <c r="M30" s="25"/>
@@ -4837,9 +4912,9 @@
       <c r="A31" s="54">
         <v>3</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="109"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
       <c r="G31" s="40"/>
@@ -4855,9 +4930,9 @@
       <c r="A32" s="54">
         <v>4</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
       <c r="G32" s="40"/>
@@ -4873,9 +4948,9 @@
       <c r="A33" s="54">
         <v>5</v>
       </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="109"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="115"/>
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
       <c r="G33" s="40"/>
@@ -4891,9 +4966,9 @@
       <c r="A34" s="54">
         <v>6</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="109"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="5"/>
       <c r="F34" s="4"/>
       <c r="G34" s="40"/>
@@ -4909,9 +4984,9 @@
       <c r="A35" s="54">
         <v>7</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="109"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="115"/>
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
       <c r="G35" s="40"/>
@@ -4927,9 +5002,9 @@
       <c r="A36" s="54">
         <v>8</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="109"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="115"/>
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
       <c r="G36" s="40"/>
@@ -4945,15 +5020,15 @@
       <c r="A37" s="54">
         <v>9</v>
       </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="109"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="115"/>
       <c r="K37" s="3"/>
       <c r="L37" s="2"/>
       <c r="M37" s="25"/>
@@ -4963,15 +5038,15 @@
       <c r="A38" s="54">
         <v>10</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="109"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="115"/>
       <c r="K38" s="3"/>
       <c r="L38" s="2"/>
       <c r="M38" s="25"/>
@@ -4981,15 +5056,15 @@
       <c r="A39" s="54">
         <v>11</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="109"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="115"/>
       <c r="K39" s="3"/>
       <c r="L39" s="2"/>
       <c r="M39" s="25"/>
@@ -4999,15 +5074,15 @@
       <c r="A40" s="54">
         <v>12</v>
       </c>
-      <c r="B40" s="110"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="109"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="115"/>
       <c r="K40" s="3"/>
       <c r="L40" s="2"/>
       <c r="M40" s="25"/>
@@ -5015,19 +5090,19 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="110">
+        <v>49</v>
+      </c>
+      <c r="B41" s="113">
         <v>0</v>
       </c>
-      <c r="C41" s="108"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="109"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="115"/>
       <c r="K41" s="3"/>
       <c r="L41" s="2"/>
       <c r="M41" s="25"/>
@@ -5050,68 +5125,68 @@
       <c r="N42" s="25"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="154" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="109"/>
+      <c r="A43" s="163" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="115"/>
       <c r="M43" s="47"/>
       <c r="N43" s="47"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="116"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="122" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="117"/>
+        <v>37</v>
+      </c>
+      <c r="B44" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="109"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="178" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="110"/>
       <c r="M44" s="45"/>
       <c r="N44" s="45"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="50"/>
-      <c r="B45" s="155" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="159" t="s">
+      <c r="B45" s="138" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="109"/>
+      <c r="G45" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="110"/>
+      <c r="I45" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="116"/>
-      <c r="G45" s="118" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="117"/>
-      <c r="I45" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="117"/>
-      <c r="K45" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="L45" s="117"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="156" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="110"/>
       <c r="M45" s="51"/>
       <c r="N45" s="51"/>
     </row>
@@ -5119,41 +5194,41 @@
       <c r="A46" s="50"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="152" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="120"/>
+      <c r="G46" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="112"/>
+      <c r="I46" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="112"/>
+      <c r="K46" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="131" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="124"/>
-      <c r="G46" s="141" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="114"/>
-      <c r="I46" s="141" t="s">
-        <v>59</v>
-      </c>
-      <c r="J46" s="114"/>
-      <c r="K46" s="156" t="s">
-        <v>49</v>
-      </c>
-      <c r="L46" s="114"/>
+      <c r="L46" s="112"/>
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="52"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
+      <c r="B47" s="161"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
       <c r="E47" s="53"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="163" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="152"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="152"/>
+      <c r="G47" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="126"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="126"/>
       <c r="K47" s="27"/>
       <c r="L47" s="29"/>
       <c r="M47" s="25"/>
@@ -5163,15 +5238,15 @@
       <c r="A48" s="36">
         <v>1</v>
       </c>
-      <c r="B48" s="110"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="109"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="115"/>
       <c r="E48" s="97"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="109"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="115"/>
       <c r="K48" s="3"/>
       <c r="L48" s="2"/>
       <c r="M48" s="25"/>
@@ -5181,15 +5256,15 @@
       <c r="A49" s="54">
         <v>2</v>
       </c>
-      <c r="B49" s="110"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="109"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="97"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="109"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="115"/>
       <c r="K49" s="3"/>
       <c r="L49" s="2"/>
       <c r="M49" s="25"/>
@@ -5199,15 +5274,15 @@
       <c r="A50" s="54">
         <v>3</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="109"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="115"/>
       <c r="E50" s="97"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="109"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="115"/>
       <c r="K50" s="3"/>
       <c r="L50" s="2"/>
       <c r="M50" s="25"/>
@@ -5217,15 +5292,15 @@
       <c r="A51" s="54">
         <v>4</v>
       </c>
-      <c r="B51" s="110"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="109"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="115"/>
       <c r="E51" s="97"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="109"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="115"/>
       <c r="K51" s="3"/>
       <c r="L51" s="2"/>
       <c r="M51" s="25"/>
@@ -5235,15 +5310,15 @@
       <c r="A52" s="54">
         <v>5</v>
       </c>
-      <c r="B52" s="110"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="109"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="115"/>
       <c r="E52" s="97"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="109"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="115"/>
       <c r="K52" s="3"/>
       <c r="L52" s="2"/>
       <c r="M52" s="25"/>
@@ -5253,15 +5328,15 @@
       <c r="A53" s="54">
         <v>6</v>
       </c>
-      <c r="B53" s="110"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="109"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="115"/>
       <c r="E53" s="97"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="109"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="115"/>
       <c r="K53" s="3"/>
       <c r="L53" s="2"/>
       <c r="M53" s="25"/>
@@ -5271,15 +5346,15 @@
       <c r="A54" s="54">
         <v>7</v>
       </c>
-      <c r="B54" s="110"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="109"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="115"/>
       <c r="E54" s="97"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="109"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="115"/>
       <c r="K54" s="3"/>
       <c r="L54" s="2"/>
       <c r="M54" s="25"/>
@@ -5289,15 +5364,15 @@
       <c r="A55" s="54">
         <v>8</v>
       </c>
-      <c r="B55" s="110"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="109"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="115"/>
       <c r="E55" s="97"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="109"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="115"/>
       <c r="K55" s="3"/>
       <c r="L55" s="2"/>
       <c r="M55" s="25"/>
@@ -5307,15 +5382,15 @@
       <c r="A56" s="54">
         <v>9</v>
       </c>
-      <c r="B56" s="110"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="109"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="115"/>
       <c r="E56" s="97"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="109"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="115"/>
       <c r="K56" s="3"/>
       <c r="L56" s="2"/>
       <c r="M56" s="25"/>
@@ -5325,15 +5400,15 @@
       <c r="A57" s="54">
         <v>10</v>
       </c>
-      <c r="B57" s="110"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="109"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="115"/>
       <c r="E57" s="97"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="109"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="115"/>
       <c r="K57" s="3"/>
       <c r="L57" s="2"/>
       <c r="M57" s="25"/>
@@ -5343,15 +5418,15 @@
       <c r="A58" s="54">
         <v>11</v>
       </c>
-      <c r="B58" s="110"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="109"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="115"/>
       <c r="E58" s="97"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="109"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="115"/>
       <c r="K58" s="3"/>
       <c r="L58" s="2"/>
       <c r="M58" s="25"/>
@@ -5361,15 +5436,15 @@
       <c r="A59" s="54">
         <v>12</v>
       </c>
-      <c r="B59" s="110"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="109"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="115"/>
       <c r="E59" s="97"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="127"/>
-      <c r="J59" s="109"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="115"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="115"/>
       <c r="K59" s="3"/>
       <c r="L59" s="2"/>
       <c r="M59" s="25"/>
@@ -5377,62 +5452,62 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="107">
+        <v>49</v>
+      </c>
+      <c r="B60" s="153">
         <v>0</v>
       </c>
-      <c r="C60" s="108"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="171"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="108"/>
-      <c r="K60" s="108"/>
-      <c r="L60" s="109"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="114"/>
+      <c r="L60" s="115"/>
       <c r="M60" s="25"/>
       <c r="N60" s="25"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="167" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="108"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="108"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="109"/>
+      <c r="A61" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="115"/>
       <c r="M61" s="56"/>
       <c r="N61" s="56"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="162" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="133" t="s">
+      <c r="F62" s="86"/>
+      <c r="G62" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="108"/>
-      <c r="D62" s="108"/>
-      <c r="E62" s="89" t="s">
+      <c r="H62" s="175"/>
+      <c r="I62" s="175"/>
+      <c r="J62" s="89" t="s">
         <v>63</v>
-      </c>
-      <c r="F62" s="86"/>
-      <c r="G62" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="89" t="s">
-        <v>65</v>
       </c>
       <c r="K62" s="86"/>
       <c r="L62" s="87"/>
@@ -5440,13 +5515,13 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="129" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
+      <c r="A63" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="124"/>
+      <c r="C63" s="124"/>
       <c r="D63" s="92" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="12"/>
@@ -5456,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="95"/>
@@ -5464,13 +5539,13 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="169"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="121"/>
+      <c r="A64" s="143"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
       <c r="F64" s="90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
@@ -5482,44 +5557,44 @@
       <c r="N64" s="57"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="165" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="124"/>
-      <c r="C65" s="124"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="124"/>
-      <c r="G65" s="124"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="124"/>
-      <c r="J65" s="124"/>
-      <c r="K65" s="124"/>
-      <c r="L65" s="114"/>
+      <c r="A65" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="120"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="120"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="120"/>
+      <c r="G65" s="120"/>
+      <c r="H65" s="120"/>
+      <c r="I65" s="120"/>
+      <c r="J65" s="120"/>
+      <c r="K65" s="120"/>
+      <c r="L65" s="112"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="166"/>
-      <c r="B66" s="121"/>
-      <c r="C66" s="121"/>
-      <c r="D66" s="121"/>
-      <c r="E66" s="121"/>
-      <c r="F66" s="121"/>
-      <c r="G66" s="121"/>
-      <c r="H66" s="121"/>
-      <c r="I66" s="121"/>
-      <c r="J66" s="121"/>
-      <c r="K66" s="121"/>
-      <c r="L66" s="152"/>
+      <c r="A66" s="159"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="126"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="168" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="116"/>
+      <c r="A67" s="160" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="109"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -5534,87 +5609,87 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="124"/>
-      <c r="C68" s="124"/>
-      <c r="D68" s="124"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="124"/>
-      <c r="I68" s="124"/>
-      <c r="J68" s="124"/>
-      <c r="K68" s="124"/>
-      <c r="L68" s="124"/>
+      <c r="A68" s="136" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="120"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="120"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="124"/>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
+      <c r="A69" s="136" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="120"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="120"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="124"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="124"/>
-      <c r="J70" s="124"/>
-      <c r="K70" s="124"/>
-      <c r="L70" s="124"/>
+      <c r="A70" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="120"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="120"/>
+      <c r="E70" s="120"/>
+      <c r="F70" s="120"/>
+      <c r="G70" s="120"/>
+      <c r="H70" s="120"/>
+      <c r="I70" s="120"/>
+      <c r="J70" s="120"/>
+      <c r="K70" s="120"/>
+      <c r="L70" s="120"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="124"/>
-      <c r="C71" s="124"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="124"/>
-      <c r="L71" s="124"/>
+      <c r="A71" s="136" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="120"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="120"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="120"/>
+      <c r="I71" s="120"/>
+      <c r="J71" s="120"/>
+      <c r="K71" s="120"/>
+      <c r="L71" s="120"/>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="123" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="124"/>
-      <c r="C72" s="124"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="124"/>
+      <c r="A72" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="120"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="120"/>
+      <c r="E72" s="120"/>
+      <c r="F72" s="120"/>
+      <c r="G72" s="120"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
@@ -5624,106 +5699,106 @@
       <c r="N72" s="11"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="123" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="124"/>
-      <c r="C73" s="124"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="124"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="124"/>
+      <c r="A73" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="120"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="120"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="120"/>
+      <c r="G73" s="120"/>
+      <c r="H73" s="120"/>
+      <c r="I73" s="120"/>
+      <c r="J73" s="120"/>
+      <c r="K73" s="120"/>
+      <c r="L73" s="120"/>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="124"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="124"/>
-      <c r="J74" s="124"/>
-      <c r="K74" s="124"/>
-      <c r="L74" s="124"/>
+      <c r="A74" s="136" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="120"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="120"/>
+      <c r="E74" s="120"/>
+      <c r="F74" s="120"/>
+      <c r="G74" s="120"/>
+      <c r="H74" s="120"/>
+      <c r="I74" s="120"/>
+      <c r="J74" s="120"/>
+      <c r="K74" s="120"/>
+      <c r="L74" s="120"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="124"/>
-      <c r="C75" s="124"/>
-      <c r="D75" s="124"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="124"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="124"/>
+      <c r="A75" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="120"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="120"/>
+      <c r="E75" s="120"/>
+      <c r="F75" s="120"/>
+      <c r="G75" s="120"/>
+      <c r="H75" s="120"/>
+      <c r="I75" s="120"/>
+      <c r="J75" s="120"/>
+      <c r="K75" s="120"/>
+      <c r="L75" s="120"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="124"/>
-      <c r="C76" s="124"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="124"/>
-      <c r="J76" s="124"/>
-      <c r="K76" s="124"/>
-      <c r="L76" s="124"/>
+      <c r="A76" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="120"/>
+      <c r="C76" s="120"/>
+      <c r="D76" s="120"/>
+      <c r="E76" s="120"/>
+      <c r="F76" s="120"/>
+      <c r="G76" s="120"/>
+      <c r="H76" s="120"/>
+      <c r="I76" s="120"/>
+      <c r="J76" s="120"/>
+      <c r="K76" s="120"/>
+      <c r="L76" s="120"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="P76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="124"/>
-      <c r="C77" s="124"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="124"/>
-      <c r="F77" s="124"/>
-      <c r="G77" s="124"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="124"/>
-      <c r="J77" s="124"/>
-      <c r="K77" s="124"/>
-      <c r="L77" s="124"/>
+      <c r="A77" s="168" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="120"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="120"/>
+      <c r="E77" s="120"/>
+      <c r="F77" s="120"/>
+      <c r="G77" s="120"/>
+      <c r="H77" s="120"/>
+      <c r="I77" s="120"/>
+      <c r="J77" s="120"/>
+      <c r="K77" s="120"/>
+      <c r="L77" s="120"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="124"/>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="124"/>
+      <c r="A78" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="120"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
+      <c r="E78" s="120"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
@@ -5736,7 +5811,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -5753,44 +5828,44 @@
       <c r="N79" s="11"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="144" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="116"/>
-      <c r="C80" s="116"/>
-      <c r="D80" s="116"/>
-      <c r="E80" s="116"/>
-      <c r="F80" s="116"/>
-      <c r="G80" s="116"/>
-      <c r="H80" s="116"/>
-      <c r="I80" s="116"/>
-      <c r="J80" s="116"/>
-      <c r="K80" s="116"/>
-      <c r="L80" s="116"/>
+      <c r="A80" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="109"/>
+      <c r="C80" s="109"/>
+      <c r="D80" s="109"/>
+      <c r="E80" s="109"/>
+      <c r="F80" s="109"/>
+      <c r="G80" s="109"/>
+      <c r="H80" s="109"/>
+      <c r="I80" s="109"/>
+      <c r="J80" s="109"/>
+      <c r="K80" s="109"/>
+      <c r="L80" s="109"/>
       <c r="M80" s="18"/>
       <c r="N80" s="18"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A81" s="151" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="121"/>
-      <c r="C81" s="121"/>
-      <c r="D81" s="121"/>
-      <c r="E81" s="121"/>
-      <c r="F81" s="121"/>
-      <c r="G81" s="121"/>
-      <c r="H81" s="121"/>
-      <c r="I81" s="121"/>
-      <c r="J81" s="121"/>
-      <c r="K81" s="121"/>
-      <c r="L81" s="152"/>
+      <c r="A81" s="172" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="124"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="124"/>
+      <c r="F81" s="124"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="124"/>
+      <c r="J81" s="124"/>
+      <c r="K81" s="124"/>
+      <c r="L81" s="126"/>
       <c r="M81" s="59"/>
       <c r="N81" s="59"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B82" s="61"/>
       <c r="C82" s="62"/>
@@ -5809,7 +5884,7 @@
     <row r="83" spans="1:14">
       <c r="A83" s="8"/>
       <c r="B83" s="66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C83" s="66"/>
       <c r="D83" s="66"/>
@@ -5819,7 +5894,7 @@
       <c r="H83" s="35"/>
       <c r="I83" s="67">
         <f>DATA!B2</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="J83" s="7"/>
       <c r="K83" s="35"/>
@@ -5830,7 +5905,7 @@
     <row r="84" spans="1:14">
       <c r="A84" s="8"/>
       <c r="B84" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C84" s="66"/>
       <c r="D84" s="66"/>
@@ -5848,7 +5923,7 @@
     <row r="85" spans="1:14">
       <c r="A85" s="8"/>
       <c r="B85" s="66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C85" s="66"/>
       <c r="D85" s="66"/>
@@ -5868,7 +5943,7 @@
     <row r="86" spans="1:14">
       <c r="A86" s="8"/>
       <c r="B86" s="66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C86" s="66"/>
       <c r="D86" s="66"/>
@@ -5886,7 +5961,7 @@
     <row r="87" spans="1:14">
       <c r="A87" s="8"/>
       <c r="B87" s="66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C87" s="66"/>
       <c r="D87" s="66"/>
@@ -5906,7 +5981,7 @@
     <row r="88" spans="1:14">
       <c r="A88" s="8"/>
       <c r="B88" s="66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C88" s="66"/>
       <c r="D88" s="66"/>
@@ -5915,11 +5990,11 @@
       <c r="G88" s="7"/>
       <c r="H88" s="35"/>
       <c r="I88" s="67"/>
-      <c r="J88" s="143">
+      <c r="J88" s="157">
         <f>I83+I85+I87</f>
-        <v>500000</v>
-      </c>
-      <c r="K88" s="114"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="112"/>
       <c r="L88" s="67"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
@@ -5927,7 +6002,7 @@
     <row r="89" spans="1:14">
       <c r="A89" s="8"/>
       <c r="B89" s="66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C89" s="66"/>
       <c r="D89" s="66"/>
@@ -5955,7 +6030,7 @@
       <c r="H90" s="35"/>
       <c r="I90" s="67">
         <f>DATA!B2</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="35"/>
@@ -5965,7 +6040,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5982,15 +6057,15 @@
       <c r="N91" s="7"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="124"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="124"/>
-      <c r="F92" s="124"/>
-      <c r="G92" s="124"/>
+      <c r="A92" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="120"/>
+      <c r="C92" s="120"/>
+      <c r="D92" s="120"/>
+      <c r="E92" s="120"/>
+      <c r="F92" s="120"/>
+      <c r="G92" s="120"/>
       <c r="H92" s="35"/>
       <c r="I92" s="67"/>
       <c r="J92" s="7"/>
@@ -6000,15 +6075,15 @@
       <c r="N92" s="7"/>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="124"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="124"/>
-      <c r="E93" s="124"/>
-      <c r="F93" s="124"/>
-      <c r="G93" s="124"/>
+      <c r="A93" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="120"/>
+      <c r="C93" s="120"/>
+      <c r="D93" s="120"/>
+      <c r="E93" s="120"/>
+      <c r="F93" s="120"/>
+      <c r="G93" s="120"/>
       <c r="H93" s="35"/>
       <c r="I93" s="69"/>
       <c r="J93" s="7"/>
@@ -6019,7 +6094,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -6032,11 +6107,11 @@
         <f>DATA!B3</f>
         <v>0</v>
       </c>
-      <c r="J94" s="113">
+      <c r="J94" s="111">
         <f>J88-J93</f>
-        <v>500000</v>
-      </c>
-      <c r="K94" s="114"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="112"/>
       <c r="L94" s="67"/>
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
@@ -6062,7 +6137,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -6081,13 +6156,13 @@
     <row r="97" spans="1:16">
       <c r="A97" s="8"/>
       <c r="B97" s="66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C97" s="66"/>
       <c r="D97" s="66"/>
       <c r="E97" s="66"/>
       <c r="F97" s="66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G97" s="98">
         <v>50000</v>
@@ -6095,7 +6170,7 @@
       <c r="H97" s="71"/>
       <c r="I97" s="8">
         <f>I90-I95</f>
-        <v>450000</v>
+        <v>-50000</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="35"/>
@@ -6103,19 +6178,19 @@
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
       <c r="P97" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="8"/>
       <c r="B98" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C98" s="66"/>
       <c r="D98" s="66"/>
       <c r="E98" s="66"/>
       <c r="F98" s="66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G98" s="66">
         <v>0</v>
@@ -6131,15 +6206,15 @@
     <row r="99" spans="1:16">
       <c r="A99" s="8"/>
       <c r="B99" s="66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C99" s="66"/>
       <c r="D99" s="66"/>
       <c r="E99" s="66"/>
       <c r="F99" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="G99" s="183">
+        <v>98</v>
+      </c>
+      <c r="G99" s="107">
         <f>DATA!B3</f>
         <v>0</v>
       </c>
@@ -6153,7 +6228,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -6183,7 +6258,7 @@
       <c r="H101" s="35"/>
       <c r="I101" s="8">
         <f>I97+DATA!B5</f>
-        <v>450000</v>
+        <v>-50000</v>
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="35"/>
@@ -6193,7 +6268,7 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -6207,7 +6282,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="67">
         <f>J94-I100</f>
-        <v>450000</v>
+        <v>-50000</v>
       </c>
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
@@ -6230,7 +6305,7 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -6251,7 +6326,7 @@
     <row r="105" spans="1:16">
       <c r="A105" s="68"/>
       <c r="B105" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -6286,7 +6361,7 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
@@ -6300,7 +6375,7 @@
       <c r="K107" s="35"/>
       <c r="L107" s="73">
         <f>L102+L105</f>
-        <v>450000</v>
+        <v>-50000</v>
       </c>
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
@@ -6322,12 +6397,12 @@
       <c r="N108" s="7"/>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="161" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="124"/>
-      <c r="C109" s="124"/>
-      <c r="D109" s="124"/>
+      <c r="A109" s="155" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="120"/>
+      <c r="C109" s="120"/>
+      <c r="D109" s="120"/>
       <c r="E109" s="7"/>
       <c r="F109" s="35"/>
       <c r="G109" s="8"/>
@@ -6341,197 +6416,197 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="103"/>
       <c r="G110" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="H110" s="70"/>
+      <c r="I110" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="J110" s="112"/>
+      <c r="K110" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="H110" s="70"/>
-      <c r="I110" s="134" t="s">
+      <c r="L110" s="73" t="s">
         <v>112</v>
-      </c>
-      <c r="J110" s="114"/>
-      <c r="K110" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="L110" s="73" t="s">
-        <v>114</v>
       </c>
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="100" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="35"/>
-      <c r="G111" s="113"/>
-      <c r="H111" s="114"/>
-      <c r="I111" s="113"/>
-      <c r="J111" s="114"/>
-      <c r="K111" s="113"/>
-      <c r="L111" s="114"/>
+      <c r="G111" s="111"/>
+      <c r="H111" s="112"/>
+      <c r="I111" s="111"/>
+      <c r="J111" s="112"/>
+      <c r="K111" s="111"/>
+      <c r="L111" s="112"/>
       <c r="M111" s="45"/>
       <c r="N111" s="45"/>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="100"/>
       <c r="B112" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" s="136" t="s">
-        <v>118</v>
-      </c>
-      <c r="D112" s="137"/>
-      <c r="E112" s="137"/>
+        <v>115</v>
+      </c>
+      <c r="C112" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" s="142"/>
+      <c r="E112" s="142"/>
       <c r="F112" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G112" s="113">
+        <v>98</v>
+      </c>
+      <c r="G112" s="111">
         <f>DATA!B4</f>
-        <v>21600</v>
-      </c>
-      <c r="H112" s="114"/>
-      <c r="I112" s="113">
+        <v>0</v>
+      </c>
+      <c r="H112" s="112"/>
+      <c r="I112" s="111">
         <f>G112</f>
-        <v>21600</v>
-      </c>
-      <c r="J112" s="114"/>
-      <c r="K112" s="113">
+        <v>0</v>
+      </c>
+      <c r="J112" s="112"/>
+      <c r="K112" s="111">
         <f>G112</f>
-        <v>21600</v>
-      </c>
-      <c r="L112" s="114"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="112"/>
       <c r="M112" s="45"/>
       <c r="N112" s="45"/>
       <c r="P112" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="100"/>
       <c r="B113" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113" s="136"/>
-      <c r="D113" s="137"/>
-      <c r="E113" s="137"/>
+        <v>118</v>
+      </c>
+      <c r="C113" s="141"/>
+      <c r="D113" s="142"/>
+      <c r="E113" s="142"/>
       <c r="F113" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G113" s="113">
+        <v>98</v>
+      </c>
+      <c r="G113" s="111">
         <v>0</v>
       </c>
-      <c r="H113" s="114"/>
-      <c r="I113" s="113">
+      <c r="H113" s="112"/>
+      <c r="I113" s="111">
         <v>0</v>
       </c>
-      <c r="J113" s="114"/>
-      <c r="K113" s="113">
+      <c r="J113" s="112"/>
+      <c r="K113" s="111">
         <v>0</v>
       </c>
-      <c r="L113" s="114"/>
+      <c r="L113" s="112"/>
       <c r="M113" s="45"/>
       <c r="N113" s="45"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="100"/>
       <c r="B114" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C114" s="136"/>
-      <c r="D114" s="137"/>
-      <c r="E114" s="137"/>
+        <v>119</v>
+      </c>
+      <c r="C114" s="141"/>
+      <c r="D114" s="142"/>
+      <c r="E114" s="142"/>
       <c r="F114" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G114" s="113">
+        <v>98</v>
+      </c>
+      <c r="G114" s="111">
         <v>0</v>
       </c>
-      <c r="H114" s="114"/>
-      <c r="I114" s="113">
+      <c r="H114" s="112"/>
+      <c r="I114" s="111">
         <v>0</v>
       </c>
-      <c r="J114" s="114"/>
-      <c r="K114" s="113">
+      <c r="J114" s="112"/>
+      <c r="K114" s="111">
         <v>0</v>
       </c>
-      <c r="L114" s="114"/>
+      <c r="L114" s="112"/>
       <c r="M114" s="45"/>
       <c r="N114" s="45"/>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="100" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G115" s="113">
+        <v>98</v>
+      </c>
+      <c r="G115" s="111">
         <v>0</v>
       </c>
-      <c r="H115" s="114"/>
-      <c r="I115" s="113">
+      <c r="H115" s="112"/>
+      <c r="I115" s="111">
         <v>0</v>
       </c>
-      <c r="J115" s="114"/>
-      <c r="K115" s="113">
+      <c r="J115" s="112"/>
+      <c r="K115" s="111">
         <v>0</v>
       </c>
-      <c r="L115" s="114"/>
+      <c r="L115" s="112"/>
       <c r="M115" s="45"/>
       <c r="N115" s="45"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="100" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G116" s="113">
+        <v>98</v>
+      </c>
+      <c r="G116" s="111">
         <v>0</v>
       </c>
-      <c r="H116" s="114"/>
-      <c r="I116" s="113">
+      <c r="H116" s="112"/>
+      <c r="I116" s="111">
         <v>0</v>
       </c>
-      <c r="J116" s="114"/>
-      <c r="K116" s="113">
+      <c r="J116" s="112"/>
+      <c r="K116" s="111">
         <v>0</v>
       </c>
-      <c r="L116" s="114"/>
+      <c r="L116" s="112"/>
       <c r="M116" s="45"/>
       <c r="N116" s="45"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -6545,14 +6620,14 @@
       <c r="K117" s="45"/>
       <c r="L117" s="106">
         <f>K112+K113+K114+K115+K116</f>
-        <v>21600</v>
+        <v>0</v>
       </c>
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -6563,7 +6638,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="45">
         <f>DATA!B4</f>
-        <v>21600</v>
+        <v>0</v>
       </c>
       <c r="J118" s="9"/>
       <c r="K118" s="45"/>
@@ -6589,29 +6664,29 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="104" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
       <c r="F120" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="G120" s="113">
+        <v>98</v>
+      </c>
+      <c r="G120" s="111">
         <v>0</v>
       </c>
-      <c r="H120" s="114"/>
-      <c r="I120" s="113">
+      <c r="H120" s="112"/>
+      <c r="I120" s="111">
         <v>0</v>
       </c>
-      <c r="J120" s="114"/>
-      <c r="K120" s="157">
+      <c r="J120" s="112"/>
+      <c r="K120" s="127">
         <v>0</v>
       </c>
-      <c r="L120" s="158"/>
+      <c r="L120" s="128"/>
       <c r="M120" s="45"/>
       <c r="N120" s="45"/>
     </row>
@@ -6633,10 +6708,10 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="105" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B122" s="62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C122" s="62"/>
       <c r="D122" s="62"/>
@@ -6659,18 +6734,18 @@
       <c r="E123" s="7"/>
       <c r="F123" s="35"/>
       <c r="G123" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="H123" s="70"/>
+      <c r="I123" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="J123" s="112"/>
+      <c r="K123" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="H123" s="70"/>
-      <c r="I123" s="134" t="s">
+      <c r="L123" s="73" t="s">
         <v>112</v>
-      </c>
-      <c r="J123" s="114"/>
-      <c r="K123" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="L123" s="73" t="s">
-        <v>114</v>
       </c>
       <c r="M123" s="45"/>
       <c r="N123" s="45"/>
@@ -6678,99 +6753,99 @@
     <row r="124" spans="1:14">
       <c r="A124" s="74"/>
       <c r="B124" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C124" s="136"/>
-      <c r="D124" s="137"/>
-      <c r="E124" s="137"/>
+        <v>115</v>
+      </c>
+      <c r="C124" s="141"/>
+      <c r="D124" s="142"/>
+      <c r="E124" s="142"/>
       <c r="F124" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G124" s="113">
+        <v>98</v>
+      </c>
+      <c r="G124" s="111">
         <v>0</v>
       </c>
-      <c r="H124" s="114"/>
-      <c r="I124" s="113">
+      <c r="H124" s="112"/>
+      <c r="I124" s="111">
         <v>0</v>
       </c>
-      <c r="J124" s="114"/>
-      <c r="K124" s="113">
+      <c r="J124" s="112"/>
+      <c r="K124" s="111">
         <v>0</v>
       </c>
-      <c r="L124" s="114"/>
+      <c r="L124" s="112"/>
       <c r="M124" s="45"/>
       <c r="N124" s="45"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="74"/>
       <c r="B125" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C125" s="136"/>
-      <c r="D125" s="137"/>
-      <c r="E125" s="137"/>
+        <v>118</v>
+      </c>
+      <c r="C125" s="141"/>
+      <c r="D125" s="142"/>
+      <c r="E125" s="142"/>
       <c r="F125" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G125" s="113">
+        <v>98</v>
+      </c>
+      <c r="G125" s="111">
         <v>0</v>
       </c>
-      <c r="H125" s="114"/>
-      <c r="I125" s="113">
+      <c r="H125" s="112"/>
+      <c r="I125" s="111">
         <f>I101-I118</f>
-        <v>428400</v>
-      </c>
-      <c r="J125" s="114"/>
-      <c r="K125" s="113">
+        <v>-50000</v>
+      </c>
+      <c r="J125" s="112"/>
+      <c r="K125" s="111">
         <v>0</v>
       </c>
-      <c r="L125" s="114"/>
+      <c r="L125" s="112"/>
       <c r="M125" s="45"/>
       <c r="N125" s="45"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="74"/>
       <c r="B126" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C126" s="136"/>
-      <c r="D126" s="137"/>
-      <c r="E126" s="137"/>
+        <v>119</v>
+      </c>
+      <c r="C126" s="141"/>
+      <c r="D126" s="142"/>
+      <c r="E126" s="142"/>
       <c r="F126" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G126" s="113">
+        <v>98</v>
+      </c>
+      <c r="G126" s="111">
         <v>0</v>
       </c>
-      <c r="H126" s="114"/>
-      <c r="I126" s="113">
+      <c r="H126" s="112"/>
+      <c r="I126" s="111">
         <v>0</v>
       </c>
-      <c r="J126" s="114"/>
-      <c r="K126" s="113">
+      <c r="J126" s="112"/>
+      <c r="K126" s="111">
         <v>0</v>
       </c>
-      <c r="L126" s="114"/>
+      <c r="L126" s="112"/>
       <c r="M126" s="45"/>
       <c r="N126" s="45"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="35"/>
-      <c r="G127" s="113"/>
-      <c r="H127" s="114"/>
-      <c r="I127" s="113"/>
-      <c r="J127" s="114"/>
-      <c r="K127" s="157">
+      <c r="G127" s="111"/>
+      <c r="H127" s="112"/>
+      <c r="I127" s="111"/>
+      <c r="J127" s="112"/>
+      <c r="K127" s="127">
         <v>0</v>
       </c>
-      <c r="L127" s="158"/>
+      <c r="L127" s="128"/>
       <c r="M127" s="45"/>
       <c r="N127" s="45"/>
     </row>
@@ -6788,14 +6863,14 @@
         <v>0</v>
       </c>
       <c r="J128" s="35"/>
-      <c r="K128" s="113"/>
-      <c r="L128" s="114"/>
+      <c r="K128" s="111"/>
+      <c r="L128" s="112"/>
       <c r="M128" s="45"/>
       <c r="N128" s="45"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -6809,7 +6884,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="14">
         <f>L107-K127</f>
-        <v>450000</v>
+        <v>-50000</v>
       </c>
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
@@ -6834,7 +6909,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -6858,7 +6933,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -6882,7 +6957,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -6903,7 +6978,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -6924,7 +6999,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -6948,7 +7023,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -6972,7 +7047,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -6993,7 +7068,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -7014,7 +7089,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="102" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B139" s="39"/>
       <c r="C139" s="39"/>
@@ -7034,44 +7109,44 @@
       <c r="O139" s="23"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="167" t="s">
-        <v>60</v>
-      </c>
-      <c r="B140" s="108"/>
-      <c r="C140" s="108"/>
-      <c r="D140" s="108"/>
-      <c r="E140" s="108"/>
-      <c r="F140" s="108"/>
-      <c r="G140" s="108"/>
-      <c r="H140" s="108"/>
-      <c r="I140" s="108"/>
-      <c r="J140" s="108"/>
-      <c r="K140" s="108"/>
-      <c r="L140" s="109"/>
+      <c r="A140" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="114"/>
+      <c r="C140" s="114"/>
+      <c r="D140" s="114"/>
+      <c r="E140" s="114"/>
+      <c r="F140" s="114"/>
+      <c r="G140" s="114"/>
+      <c r="H140" s="114"/>
+      <c r="I140" s="114"/>
+      <c r="J140" s="114"/>
+      <c r="K140" s="114"/>
+      <c r="L140" s="115"/>
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
       <c r="O140" s="23"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B141" s="162" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="114"/>
+      <c r="D141" s="114"/>
+      <c r="E141" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B141" s="133" t="s">
+      <c r="F141" s="86"/>
+      <c r="G141" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C141" s="108"/>
-      <c r="D141" s="108"/>
-      <c r="E141" s="89" t="s">
+      <c r="H141" s="175"/>
+      <c r="I141" s="175"/>
+      <c r="J141" s="89" t="s">
         <v>63</v>
-      </c>
-      <c r="F141" s="86"/>
-      <c r="G141" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="H141" s="112"/>
-      <c r="I141" s="112"/>
-      <c r="J141" s="89" t="s">
-        <v>65</v>
       </c>
       <c r="K141" s="86"/>
       <c r="L141" s="87"/>
@@ -7080,13 +7155,13 @@
       <c r="O141" s="23"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="129" t="s">
-        <v>66</v>
-      </c>
-      <c r="B142" s="121"/>
-      <c r="C142" s="121"/>
+      <c r="A142" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142" s="124"/>
+      <c r="C142" s="124"/>
       <c r="D142" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E142" s="23"/>
       <c r="F142" s="12"/>
@@ -7101,20 +7176,20 @@
       <c r="O142" s="23"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="181" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143" s="124"/>
-      <c r="C143" s="124"/>
-      <c r="D143" s="124"/>
-      <c r="E143" s="124"/>
-      <c r="F143" s="124"/>
-      <c r="G143" s="124"/>
-      <c r="H143" s="124"/>
-      <c r="I143" s="124"/>
-      <c r="J143" s="124"/>
-      <c r="K143" s="124"/>
-      <c r="L143" s="114"/>
+      <c r="A143" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="120"/>
+      <c r="C143" s="120"/>
+      <c r="D143" s="120"/>
+      <c r="E143" s="120"/>
+      <c r="F143" s="120"/>
+      <c r="G143" s="120"/>
+      <c r="H143" s="120"/>
+      <c r="I143" s="120"/>
+      <c r="J143" s="120"/>
+      <c r="K143" s="120"/>
+      <c r="L143" s="112"/>
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
       <c r="O143" s="23"/>
@@ -7190,15 +7265,15 @@
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
-      <c r="F148" s="125" t="s">
-        <v>145</v>
-      </c>
-      <c r="G148" s="124"/>
-      <c r="H148" s="124"/>
-      <c r="I148" s="124"/>
-      <c r="J148" s="124"/>
-      <c r="K148" s="124"/>
-      <c r="L148" s="114"/>
+      <c r="F148" s="154" t="s">
+        <v>143</v>
+      </c>
+      <c r="G148" s="120"/>
+      <c r="H148" s="120"/>
+      <c r="I148" s="120"/>
+      <c r="J148" s="120"/>
+      <c r="K148" s="120"/>
+      <c r="L148" s="112"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
@@ -7208,55 +7283,55 @@
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
-      <c r="F149" s="125" t="s">
-        <v>146</v>
-      </c>
-      <c r="G149" s="124"/>
-      <c r="H149" s="124"/>
-      <c r="I149" s="124"/>
-      <c r="J149" s="124"/>
-      <c r="K149" s="124"/>
-      <c r="L149" s="114"/>
+      <c r="F149" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="G149" s="120"/>
+      <c r="H149" s="120"/>
+      <c r="I149" s="120"/>
+      <c r="J149" s="120"/>
+      <c r="K149" s="120"/>
+      <c r="L149" s="112"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B150" s="124"/>
-      <c r="C150" s="124"/>
+      <c r="A150" s="148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" s="120"/>
+      <c r="C150" s="120"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
-      <c r="F150" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="G150" s="124"/>
-      <c r="H150" s="124"/>
-      <c r="I150" s="124"/>
-      <c r="J150" s="124"/>
-      <c r="K150" s="124"/>
-      <c r="L150" s="114"/>
+      <c r="F150" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="G150" s="120"/>
+      <c r="H150" s="120"/>
+      <c r="I150" s="120"/>
+      <c r="J150" s="120"/>
+      <c r="K150" s="120"/>
+      <c r="L150" s="112"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="147" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" s="124"/>
-      <c r="C151" s="124"/>
+      <c r="A151" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" s="120"/>
+      <c r="C151" s="120"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
-      <c r="F151" s="143" t="s">
-        <v>150</v>
-      </c>
-      <c r="G151" s="124"/>
-      <c r="H151" s="124"/>
-      <c r="I151" s="124"/>
-      <c r="J151" s="124"/>
-      <c r="K151" s="124"/>
-      <c r="L151" s="114"/>
+      <c r="F151" s="157" t="s">
+        <v>148</v>
+      </c>
+      <c r="G151" s="120"/>
+      <c r="H151" s="120"/>
+      <c r="I151" s="120"/>
+      <c r="J151" s="120"/>
+      <c r="K151" s="120"/>
+      <c r="L151" s="112"/>
       <c r="M151" s="75"/>
       <c r="N151" s="75"/>
     </row>
@@ -7534,42 +7609,174 @@
     </row>
   </sheetData>
   <mergeCells count="240">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A143:L143"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="A140:L140"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A68:L68"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="F148:L148"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="A77:L77"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A69:L69"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="F150:L150"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A80:L80"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E44:L44"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A73:L73"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="F151:L151"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="A65:L66"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="F149:L149"/>
     <mergeCell ref="C124:E124"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="G13:L13"/>
@@ -7594,188 +7801,57 @@
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A143:L143"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="A140:L140"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="I39:J39"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="F149:L149"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="F151:L151"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="A65:L66"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A70:L70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="K120:L120"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A73:L73"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="A3:L3"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A93:G93"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A78:E78"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F150:L150"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="A80:L80"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F148:L148"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="A77:L77"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E44:L44"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7793,33 +7869,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7827,15 +7906,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4">
-        <v>21600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7843,7 +7922,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7851,10 +7930,20 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
